--- a/참고자료/주문서 데이터-정규화 실습.xlsx
+++ b/참고자료/주문서 데이터-정규화 실습.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="고객정보" sheetId="4" r:id="rId1"/>
@@ -12711,7 +12711,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -13899,7 +13899,7 @@
       </c>
       <c r="E2">
         <f ca="1">INT((D2-RANDBETWEEN(0,200))/10)*10</f>
-        <v>3280</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -13919,7 +13919,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">INT((D3-RANDBETWEEN(0,200))/10)*10</f>
-        <v>4060</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1920</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2460</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13999,7 +13999,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4880</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2540</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -14039,7 +14039,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -14079,7 +14079,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1420</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -14099,7 +14099,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>820</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1440</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2270</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1990</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1370</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>3350</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1600</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -14279,7 +14279,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2430</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -14299,7 +14299,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1630</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>850</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -14339,7 +14339,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2590</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2580</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -14379,7 +14379,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>950</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2970</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2060</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -14439,7 +14439,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4620</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1990</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3090</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>960</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -14519,7 +14519,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3270</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -14539,7 +14539,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>4340</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -14559,7 +14559,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>4850</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4630</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>3480</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -14619,7 +14619,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>770</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>3230</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -14659,7 +14659,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3120</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -14679,7 +14679,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>3500</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>810</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -14739,7 +14739,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>780</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -14759,7 +14759,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>2530</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -14779,7 +14779,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1110</v>
+        <v>980</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -14799,7 +14799,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>670</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>730</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -14839,7 +14839,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4120</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -14859,7 +14859,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>760</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -14879,7 +14879,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1080</v>
+        <v>990</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -14899,7 +14899,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>910</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>3360</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>790</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -14999,7 +14999,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>590</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -15019,7 +15019,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4350</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2060</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4640</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3260</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>4260</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -15159,7 +15159,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4510</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>1450</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">INT((D67-RANDBETWEEN(0,200))/10)*10</f>
-        <v>4360</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -15219,7 +15219,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>3190</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -15239,7 +15239,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>4580</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>1230</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>4450</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>2540</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>4610</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>4370</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>3970</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -15379,7 +15379,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>4330</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -15399,7 +15399,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>630</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>1380</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>1980</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -15459,7 +15459,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>3210</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>4540</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>700</v>
+        <v>760</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -15519,7 +15519,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>1080</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -15539,7 +15539,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>1520</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -15559,7 +15559,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>2720</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -15579,7 +15579,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>4040</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -15599,7 +15599,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>1890</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>1000</v>
+        <v>910</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -15639,7 +15639,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>2820</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -15679,7 +15679,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>2370</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>1500</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>4580</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -15739,7 +15739,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>3470</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -15779,7 +15779,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>1400</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>3850</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -15859,7 +15859,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>2440</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -15879,7 +15879,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>2330</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -15899,7 +15899,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>3000</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -15919,7 +15919,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>1330</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>3150</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>2460</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -15999,7 +15999,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>4660</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -16039,7 +16039,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>4930</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -16059,7 +16059,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>1490</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>3590</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>1810</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>900</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -16139,7 +16139,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>4620</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -16159,7 +16159,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>1070</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>4770</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -16199,7 +16199,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>3530</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>590</v>
+        <v>630</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>1110</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -16259,7 +16259,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>4740</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>3190</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -16299,7 +16299,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>3450</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>3600</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -16359,7 +16359,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>4520</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -16419,7 +16419,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>4150</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>4300</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>2900</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" ca="1" si="2">INT((D131-RANDBETWEEN(0,200))/10)*10</f>
-        <v>2710</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>3340</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>3590</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -16539,7 +16539,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>3430</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -16559,7 +16559,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>4160</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -16579,7 +16579,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>1480</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -16639,7 +16639,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>1510</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -16679,7 +16679,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>4190</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -16719,7 +16719,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>4200</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>910</v>
+        <v>920</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="2"/>
-        <v>3210</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -16779,7 +16779,7 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="2"/>
-        <v>4020</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="2"/>
-        <v>890</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="2"/>
-        <v>4290</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="2"/>
-        <v>1840</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -16859,7 +16859,7 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="2"/>
-        <v>3500</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -16879,7 +16879,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="2"/>
-        <v>1520</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -16899,7 +16899,7 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="2"/>
-        <v>2050</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="2"/>
-        <v>4690</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="2"/>
-        <v>710</v>
+        <v>720</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="2"/>
-        <v>520</v>
+        <v>540</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -16979,7 +16979,7 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="2"/>
-        <v>1410</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -16999,7 +16999,7 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="2"/>
-        <v>3460</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="2"/>
-        <v>3200</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -17039,7 +17039,7 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="2"/>
-        <v>1010</v>
+        <v>930</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -17059,7 +17059,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="2"/>
-        <v>3280</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -17079,7 +17079,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="2"/>
-        <v>2670</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -17099,7 +17099,7 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="2"/>
-        <v>820</v>
+        <v>730</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="2"/>
-        <v>3280</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="2"/>
-        <v>960</v>
+        <v>810</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -17179,7 +17179,7 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="2"/>
-        <v>2020</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -17199,7 +17199,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="2"/>
-        <v>4230</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -17219,7 +17219,7 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="2"/>
-        <v>4010</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="2"/>
-        <v>3900</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="2"/>
-        <v>1500</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -17279,7 +17279,7 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="2"/>
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="2"/>
-        <v>1860</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -17319,7 +17319,7 @@
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="2"/>
-        <v>4640</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="2"/>
-        <v>3480</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -17359,7 +17359,7 @@
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="2"/>
-        <v>4130</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -17379,7 +17379,7 @@
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="2"/>
-        <v>1650</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -17399,7 +17399,7 @@
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="2"/>
-        <v>4120</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -17419,7 +17419,7 @@
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="2"/>
-        <v>4640</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="2"/>
-        <v>3220</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="2"/>
-        <v>2480</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="2"/>
-        <v>3360</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -17519,7 +17519,7 @@
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="2"/>
-        <v>2070</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -17539,7 +17539,7 @@
       </c>
       <c r="E184">
         <f t="shared" ca="1" si="2"/>
-        <v>600</v>
+        <v>650</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -17559,7 +17559,7 @@
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="2"/>
-        <v>3820</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -17579,7 +17579,7 @@
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="2"/>
-        <v>4630</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -17599,7 +17599,7 @@
       </c>
       <c r="E187">
         <f t="shared" ca="1" si="2"/>
-        <v>4370</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="E188">
         <f t="shared" ca="1" si="2"/>
-        <v>2500</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -17639,7 +17639,7 @@
       </c>
       <c r="E189">
         <f t="shared" ca="1" si="2"/>
-        <v>1070</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="E190">
         <f t="shared" ca="1" si="2"/>
-        <v>1510</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="E191">
         <f t="shared" ca="1" si="2"/>
-        <v>3840</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="E192">
         <f t="shared" ca="1" si="2"/>
-        <v>3580</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -17719,7 +17719,7 @@
       </c>
       <c r="E193">
         <f t="shared" ca="1" si="2"/>
-        <v>4700</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -17739,7 +17739,7 @@
       </c>
       <c r="E194">
         <f t="shared" ca="1" si="2"/>
-        <v>630</v>
+        <v>730</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -17759,7 +17759,7 @@
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E258" ca="1" si="3">INT((D195-RANDBETWEEN(0,200))/10)*10</f>
-        <v>4150</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="E196">
         <f t="shared" ca="1" si="3"/>
-        <v>840</v>
+        <v>910</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -17799,7 +17799,7 @@
       </c>
       <c r="E197">
         <f t="shared" ca="1" si="3"/>
-        <v>4300</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="E198">
         <f t="shared" ca="1" si="3"/>
-        <v>1200</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -17859,7 +17859,7 @@
       </c>
       <c r="E200">
         <f t="shared" ca="1" si="3"/>
-        <v>1030</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -17879,7 +17879,7 @@
       </c>
       <c r="E201">
         <f t="shared" ca="1" si="3"/>
-        <v>3490</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="E202">
         <f t="shared" ca="1" si="3"/>
-        <v>1030</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -17919,7 +17919,7 @@
       </c>
       <c r="E203">
         <f t="shared" ca="1" si="3"/>
-        <v>2890</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -17939,7 +17939,7 @@
       </c>
       <c r="E204">
         <f t="shared" ca="1" si="3"/>
-        <v>2000</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -17959,7 +17959,7 @@
       </c>
       <c r="E205">
         <f t="shared" ca="1" si="3"/>
-        <v>1530</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -17979,7 +17979,7 @@
       </c>
       <c r="E206">
         <f t="shared" ca="1" si="3"/>
-        <v>4550</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -17999,7 +17999,7 @@
       </c>
       <c r="E207">
         <f t="shared" ca="1" si="3"/>
-        <v>2240</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -18019,7 +18019,7 @@
       </c>
       <c r="E208">
         <f t="shared" ca="1" si="3"/>
-        <v>4470</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="E209">
         <f t="shared" ca="1" si="3"/>
-        <v>1530</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -18059,7 +18059,7 @@
       </c>
       <c r="E210">
         <f t="shared" ca="1" si="3"/>
-        <v>2520</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -18079,7 +18079,7 @@
       </c>
       <c r="E211">
         <f t="shared" ca="1" si="3"/>
-        <v>2460</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="E212">
         <f t="shared" ca="1" si="3"/>
-        <v>360</v>
+        <v>440</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -18119,7 +18119,7 @@
       </c>
       <c r="E213">
         <f t="shared" ca="1" si="3"/>
-        <v>2950</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -18139,7 +18139,7 @@
       </c>
       <c r="E214">
         <f t="shared" ca="1" si="3"/>
-        <v>2580</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -18159,7 +18159,7 @@
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="3"/>
-        <v>4230</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="E216">
         <f t="shared" ca="1" si="3"/>
-        <v>4390</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -18199,7 +18199,7 @@
       </c>
       <c r="E217">
         <f t="shared" ca="1" si="3"/>
-        <v>1140</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -18219,7 +18219,7 @@
       </c>
       <c r="E218">
         <f t="shared" ca="1" si="3"/>
-        <v>4780</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -18239,7 +18239,7 @@
       </c>
       <c r="E219">
         <f t="shared" ca="1" si="3"/>
-        <v>2570</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="E220">
         <f t="shared" ca="1" si="3"/>
-        <v>4200</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="E221">
         <f t="shared" ca="1" si="3"/>
-        <v>2020</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="E222">
         <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <v>530</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -18319,7 +18319,7 @@
       </c>
       <c r="E223">
         <f t="shared" ca="1" si="3"/>
-        <v>660</v>
+        <v>760</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -18339,7 +18339,7 @@
       </c>
       <c r="E224">
         <f t="shared" ca="1" si="3"/>
-        <v>1030</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -18359,7 +18359,7 @@
       </c>
       <c r="E225">
         <f t="shared" ca="1" si="3"/>
-        <v>3990</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -18379,7 +18379,7 @@
       </c>
       <c r="E226">
         <f t="shared" ca="1" si="3"/>
-        <v>4800</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="E227">
         <f t="shared" ca="1" si="3"/>
-        <v>4390</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -18419,7 +18419,7 @@
       </c>
       <c r="E228">
         <f t="shared" ca="1" si="3"/>
-        <v>1590</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -18439,7 +18439,7 @@
       </c>
       <c r="E229">
         <f t="shared" ca="1" si="3"/>
-        <v>970</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="E230">
         <f t="shared" ca="1" si="3"/>
-        <v>3350</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="E231">
         <f t="shared" ca="1" si="3"/>
-        <v>1420</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -18499,7 +18499,7 @@
       </c>
       <c r="E232">
         <f t="shared" ca="1" si="3"/>
-        <v>2620</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -18519,7 +18519,7 @@
       </c>
       <c r="E233">
         <f t="shared" ca="1" si="3"/>
-        <v>4620</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -18539,7 +18539,7 @@
       </c>
       <c r="E234">
         <f t="shared" ca="1" si="3"/>
-        <v>800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -18559,7 +18559,7 @@
       </c>
       <c r="E235">
         <f t="shared" ca="1" si="3"/>
-        <v>640</v>
+        <v>750</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="E236">
         <f t="shared" ca="1" si="3"/>
-        <v>3930</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -18599,7 +18599,7 @@
       </c>
       <c r="E237">
         <f t="shared" ca="1" si="3"/>
-        <v>830</v>
+        <v>860</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -18619,7 +18619,7 @@
       </c>
       <c r="E238">
         <f t="shared" ca="1" si="3"/>
-        <v>1470</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -18639,7 +18639,7 @@
       </c>
       <c r="E239">
         <f t="shared" ca="1" si="3"/>
-        <v>1770</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -18659,7 +18659,7 @@
       </c>
       <c r="E240">
         <f t="shared" ca="1" si="3"/>
-        <v>770</v>
+        <v>650</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -18679,7 +18679,7 @@
       </c>
       <c r="E241">
         <f t="shared" ca="1" si="3"/>
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="E243">
         <f t="shared" ca="1" si="3"/>
-        <v>3290</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -18739,7 +18739,7 @@
       </c>
       <c r="E244">
         <f t="shared" ca="1" si="3"/>
-        <v>4070</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -18759,7 +18759,7 @@
       </c>
       <c r="E245">
         <f t="shared" ca="1" si="3"/>
-        <v>1480</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -18779,7 +18779,7 @@
       </c>
       <c r="E246">
         <f t="shared" ca="1" si="3"/>
-        <v>1090</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -18799,7 +18799,7 @@
       </c>
       <c r="E247">
         <f t="shared" ca="1" si="3"/>
-        <v>2580</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="E248">
         <f t="shared" ca="1" si="3"/>
-        <v>3880</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -18859,7 +18859,7 @@
       </c>
       <c r="E250">
         <f t="shared" ca="1" si="3"/>
-        <v>3480</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -18879,7 +18879,7 @@
       </c>
       <c r="E251">
         <f t="shared" ca="1" si="3"/>
-        <v>780</v>
+        <v>810</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="E252">
         <f t="shared" ca="1" si="3"/>
-        <v>970</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -18919,7 +18919,7 @@
       </c>
       <c r="E253">
         <f t="shared" ca="1" si="3"/>
-        <v>2290</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -18939,7 +18939,7 @@
       </c>
       <c r="E254">
         <f t="shared" ca="1" si="3"/>
-        <v>2590</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -18959,7 +18959,7 @@
       </c>
       <c r="E255">
         <f t="shared" ca="1" si="3"/>
-        <v>630</v>
+        <v>800</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -18979,7 +18979,7 @@
       </c>
       <c r="E256">
         <f t="shared" ca="1" si="3"/>
-        <v>1420</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -18999,7 +18999,7 @@
       </c>
       <c r="E257">
         <f t="shared" ca="1" si="3"/>
-        <v>2700</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="E258">
         <f t="shared" ca="1" si="3"/>
-        <v>4490</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -19039,7 +19039,7 @@
       </c>
       <c r="E259">
         <f t="shared" ref="E259:E322" ca="1" si="4">INT((D259-RANDBETWEEN(0,200))/10)*10</f>
-        <v>3500</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -19059,7 +19059,7 @@
       </c>
       <c r="E260">
         <f t="shared" ca="1" si="4"/>
-        <v>1420</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -19099,7 +19099,7 @@
       </c>
       <c r="E262">
         <f t="shared" ca="1" si="4"/>
-        <v>4680</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -19119,7 +19119,7 @@
       </c>
       <c r="E263">
         <f t="shared" ca="1" si="4"/>
-        <v>800</v>
+        <v>840</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="E264">
         <f t="shared" ca="1" si="4"/>
-        <v>2950</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="E265">
         <f t="shared" ca="1" si="4"/>
-        <v>3460</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="E266">
         <f t="shared" ca="1" si="4"/>
-        <v>670</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -19199,7 +19199,7 @@
       </c>
       <c r="E267">
         <f t="shared" ca="1" si="4"/>
-        <v>900</v>
+        <v>740</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="E268">
         <f t="shared" ca="1" si="4"/>
-        <v>3570</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="E269">
         <f t="shared" ca="1" si="4"/>
-        <v>4340</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -19259,7 +19259,7 @@
       </c>
       <c r="E270">
         <f t="shared" ca="1" si="4"/>
-        <v>740</v>
+        <v>850</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="E271">
         <f t="shared" ca="1" si="4"/>
-        <v>3830</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -19299,7 +19299,7 @@
       </c>
       <c r="E272">
         <f t="shared" ca="1" si="4"/>
-        <v>3340</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -19319,7 +19319,7 @@
       </c>
       <c r="E273">
         <f t="shared" ca="1" si="4"/>
-        <v>3110</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -19339,7 +19339,7 @@
       </c>
       <c r="E274">
         <f t="shared" ca="1" si="4"/>
-        <v>2060</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="E275">
         <f t="shared" ca="1" si="4"/>
-        <v>2500</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -19379,7 +19379,7 @@
       </c>
       <c r="E276">
         <f t="shared" ca="1" si="4"/>
-        <v>4550</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -19399,7 +19399,7 @@
       </c>
       <c r="E277">
         <f t="shared" ca="1" si="4"/>
-        <v>1390</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -19419,7 +19419,7 @@
       </c>
       <c r="E278">
         <f t="shared" ca="1" si="4"/>
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -19439,7 +19439,7 @@
       </c>
       <c r="E279">
         <f t="shared" ca="1" si="4"/>
-        <v>1070</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="E280">
         <f t="shared" ca="1" si="4"/>
-        <v>4460</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -19479,7 +19479,7 @@
       </c>
       <c r="E281">
         <f t="shared" ca="1" si="4"/>
-        <v>3990</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -19499,7 +19499,7 @@
       </c>
       <c r="E282">
         <f t="shared" ca="1" si="4"/>
-        <v>2560</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -19519,7 +19519,7 @@
       </c>
       <c r="E283">
         <f t="shared" ca="1" si="4"/>
-        <v>3410</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -19539,7 +19539,7 @@
       </c>
       <c r="E284">
         <f t="shared" ca="1" si="4"/>
-        <v>620</v>
+        <v>700</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -19559,7 +19559,7 @@
       </c>
       <c r="E285">
         <f t="shared" ca="1" si="4"/>
-        <v>3330</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -19579,7 +19579,7 @@
       </c>
       <c r="E286">
         <f t="shared" ca="1" si="4"/>
-        <v>1810</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -19619,7 +19619,7 @@
       </c>
       <c r="E288">
         <f t="shared" ca="1" si="4"/>
-        <v>1360</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="E289">
         <f t="shared" ca="1" si="4"/>
-        <v>2610</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="E290">
         <f t="shared" ca="1" si="4"/>
-        <v>4040</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -19679,7 +19679,7 @@
       </c>
       <c r="E291">
         <f t="shared" ca="1" si="4"/>
-        <v>2240</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -19699,7 +19699,7 @@
       </c>
       <c r="E292">
         <f t="shared" ca="1" si="4"/>
-        <v>4480</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -19719,7 +19719,7 @@
       </c>
       <c r="E293">
         <f t="shared" ca="1" si="4"/>
-        <v>2210</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -19739,7 +19739,7 @@
       </c>
       <c r="E294">
         <f t="shared" ca="1" si="4"/>
-        <v>1280</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -19759,7 +19759,7 @@
       </c>
       <c r="E295">
         <f t="shared" ca="1" si="4"/>
-        <v>3890</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -19779,7 +19779,7 @@
       </c>
       <c r="E296">
         <f t="shared" ca="1" si="4"/>
-        <v>1770</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -19799,7 +19799,7 @@
       </c>
       <c r="E297">
         <f t="shared" ca="1" si="4"/>
-        <v>4000</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -19819,7 +19819,7 @@
       </c>
       <c r="E298">
         <f t="shared" ca="1" si="4"/>
-        <v>3580</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -19839,7 +19839,7 @@
       </c>
       <c r="E299">
         <f t="shared" ca="1" si="4"/>
-        <v>2330</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -19859,7 +19859,7 @@
       </c>
       <c r="E300">
         <f t="shared" ca="1" si="4"/>
-        <v>1610</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -19879,7 +19879,7 @@
       </c>
       <c r="E301">
         <f t="shared" ca="1" si="4"/>
-        <v>4620</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="E302">
         <f t="shared" ca="1" si="4"/>
-        <v>1960</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="E304">
         <f t="shared" ca="1" si="4"/>
-        <v>950</v>
+        <v>910</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -19959,7 +19959,7 @@
       </c>
       <c r="E305">
         <f t="shared" ca="1" si="4"/>
-        <v>4210</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -19979,7 +19979,7 @@
       </c>
       <c r="E306">
         <f t="shared" ca="1" si="4"/>
-        <v>410</v>
+        <v>520</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -19999,7 +19999,7 @@
       </c>
       <c r="E307">
         <f t="shared" ca="1" si="4"/>
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -20039,7 +20039,7 @@
       </c>
       <c r="E309">
         <f t="shared" ca="1" si="4"/>
-        <v>3560</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="E310">
         <f t="shared" ca="1" si="4"/>
-        <v>3260</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -20079,7 +20079,7 @@
       </c>
       <c r="E311">
         <f t="shared" ca="1" si="4"/>
-        <v>910</v>
+        <v>980</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="E312">
         <f t="shared" ca="1" si="4"/>
-        <v>2560</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -20119,7 +20119,7 @@
       </c>
       <c r="E313">
         <f t="shared" ca="1" si="4"/>
-        <v>500</v>
+        <v>540</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -20139,7 +20139,7 @@
       </c>
       <c r="E314">
         <f t="shared" ca="1" si="4"/>
-        <v>2480</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -20159,7 +20159,7 @@
       </c>
       <c r="E315">
         <f t="shared" ca="1" si="4"/>
-        <v>870</v>
+        <v>820</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -20179,7 +20179,7 @@
       </c>
       <c r="E316">
         <f t="shared" ca="1" si="4"/>
-        <v>4720</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -20199,7 +20199,7 @@
       </c>
       <c r="E317">
         <f t="shared" ca="1" si="4"/>
-        <v>3420</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -20219,7 +20219,7 @@
       </c>
       <c r="E318">
         <f t="shared" ca="1" si="4"/>
-        <v>1210</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -20259,7 +20259,7 @@
       </c>
       <c r="E320">
         <f t="shared" ca="1" si="4"/>
-        <v>770</v>
+        <v>800</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="E321">
         <f t="shared" ca="1" si="4"/>
-        <v>1020</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -20299,7 +20299,7 @@
       </c>
       <c r="E322">
         <f t="shared" ca="1" si="4"/>
-        <v>3970</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -20319,7 +20319,7 @@
       </c>
       <c r="E323">
         <f t="shared" ref="E323:E386" ca="1" si="5">INT((D323-RANDBETWEEN(0,200))/10)*10</f>
-        <v>1270</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -20339,7 +20339,7 @@
       </c>
       <c r="E324">
         <f t="shared" ca="1" si="5"/>
-        <v>4140</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="E325">
         <f t="shared" ca="1" si="5"/>
-        <v>4550</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -20379,7 +20379,7 @@
       </c>
       <c r="E326">
         <f t="shared" ca="1" si="5"/>
-        <v>3280</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -20399,7 +20399,7 @@
       </c>
       <c r="E327">
         <f t="shared" ca="1" si="5"/>
-        <v>3190</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -20439,7 +20439,7 @@
       </c>
       <c r="E329">
         <f t="shared" ca="1" si="5"/>
-        <v>3190</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -20459,7 +20459,7 @@
       </c>
       <c r="E330">
         <f t="shared" ca="1" si="5"/>
-        <v>3300</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -20479,7 +20479,7 @@
       </c>
       <c r="E331">
         <f t="shared" ca="1" si="5"/>
-        <v>1960</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -20499,7 +20499,7 @@
       </c>
       <c r="E332">
         <f t="shared" ca="1" si="5"/>
-        <v>4300</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -20519,7 +20519,7 @@
       </c>
       <c r="E333">
         <f t="shared" ca="1" si="5"/>
-        <v>2240</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -20539,7 +20539,7 @@
       </c>
       <c r="E334">
         <f t="shared" ca="1" si="5"/>
-        <v>680</v>
+        <v>660</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -20559,7 +20559,7 @@
       </c>
       <c r="E335">
         <f t="shared" ca="1" si="5"/>
-        <v>1100</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="E336">
         <f t="shared" ca="1" si="5"/>
-        <v>3410</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -20599,7 +20599,7 @@
       </c>
       <c r="E337">
         <f t="shared" ca="1" si="5"/>
-        <v>990</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="E338">
         <f t="shared" ca="1" si="5"/>
-        <v>4590</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -20639,7 +20639,7 @@
       </c>
       <c r="E339">
         <f t="shared" ca="1" si="5"/>
-        <v>1500</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -20659,7 +20659,7 @@
       </c>
       <c r="E340">
         <f t="shared" ca="1" si="5"/>
-        <v>3180</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="E341">
         <f t="shared" ca="1" si="5"/>
-        <v>4660</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -20699,7 +20699,7 @@
       </c>
       <c r="E342">
         <f t="shared" ca="1" si="5"/>
-        <v>3980</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -20719,7 +20719,7 @@
       </c>
       <c r="E343">
         <f t="shared" ca="1" si="5"/>
-        <v>4410</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="E344">
         <f t="shared" ca="1" si="5"/>
-        <v>910</v>
+        <v>830</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -20759,7 +20759,7 @@
       </c>
       <c r="E345">
         <f t="shared" ca="1" si="5"/>
-        <v>3470</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -20779,7 +20779,7 @@
       </c>
       <c r="E346">
         <f t="shared" ca="1" si="5"/>
-        <v>1470</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -20799,7 +20799,7 @@
       </c>
       <c r="E347">
         <f t="shared" ca="1" si="5"/>
-        <v>2480</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="E349">
         <f t="shared" ca="1" si="5"/>
-        <v>1110</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -20859,7 +20859,7 @@
       </c>
       <c r="E350">
         <f t="shared" ca="1" si="5"/>
-        <v>4170</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="E351">
         <f t="shared" ca="1" si="5"/>
-        <v>4630</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="E352">
         <f t="shared" ca="1" si="5"/>
-        <v>1400</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -20919,7 +20919,7 @@
       </c>
       <c r="E353">
         <f t="shared" ca="1" si="5"/>
-        <v>3750</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -20939,7 +20939,7 @@
       </c>
       <c r="E354">
         <f t="shared" ca="1" si="5"/>
-        <v>4240</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -20959,7 +20959,7 @@
       </c>
       <c r="E355">
         <f t="shared" ca="1" si="5"/>
-        <v>1480</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -20979,7 +20979,7 @@
       </c>
       <c r="E356">
         <f t="shared" ca="1" si="5"/>
-        <v>1960</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="E357">
         <f t="shared" ca="1" si="5"/>
-        <v>1120</v>
+        <v>990</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -21019,7 +21019,7 @@
       </c>
       <c r="E358">
         <f t="shared" ca="1" si="5"/>
-        <v>1060</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -21039,7 +21039,7 @@
       </c>
       <c r="E359">
         <f t="shared" ca="1" si="5"/>
-        <v>2540</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -21059,7 +21059,7 @@
       </c>
       <c r="E360">
         <f t="shared" ca="1" si="5"/>
-        <v>1470</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -21079,7 +21079,7 @@
       </c>
       <c r="E361">
         <f t="shared" ca="1" si="5"/>
-        <v>4340</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -21099,7 +21099,7 @@
       </c>
       <c r="E362">
         <f t="shared" ca="1" si="5"/>
-        <v>2530</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="E363">
         <f t="shared" ca="1" si="5"/>
-        <v>1200</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -21139,7 +21139,7 @@
       </c>
       <c r="E364">
         <f t="shared" ca="1" si="5"/>
-        <v>3340</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="E365">
         <f t="shared" ca="1" si="5"/>
-        <v>3010</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -21199,7 +21199,7 @@
       </c>
       <c r="E367">
         <f t="shared" ca="1" si="5"/>
-        <v>960</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="E368">
         <f t="shared" ca="1" si="5"/>
-        <v>520</v>
+        <v>490</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -21239,7 +21239,7 @@
       </c>
       <c r="E369">
         <f t="shared" ca="1" si="5"/>
-        <v>4080</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -21259,7 +21259,7 @@
       </c>
       <c r="E370">
         <f t="shared" ca="1" si="5"/>
-        <v>1570</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -21279,7 +21279,7 @@
       </c>
       <c r="E371">
         <f t="shared" ca="1" si="5"/>
-        <v>3450</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -21299,7 +21299,7 @@
       </c>
       <c r="E372">
         <f t="shared" ca="1" si="5"/>
-        <v>3370</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -21319,7 +21319,7 @@
       </c>
       <c r="E373">
         <f t="shared" ca="1" si="5"/>
-        <v>4210</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -21339,7 +21339,7 @@
       </c>
       <c r="E374">
         <f t="shared" ca="1" si="5"/>
-        <v>3900</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="E375">
         <f t="shared" ca="1" si="5"/>
-        <v>1420</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -21399,7 +21399,7 @@
       </c>
       <c r="E377">
         <f t="shared" ca="1" si="5"/>
-        <v>740</v>
+        <v>620</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="E378">
         <f t="shared" ca="1" si="5"/>
-        <v>2550</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="E379">
         <f t="shared" ca="1" si="5"/>
-        <v>2980</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -21459,7 +21459,7 @@
       </c>
       <c r="E380">
         <f t="shared" ca="1" si="5"/>
-        <v>500</v>
+        <v>420</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -21479,7 +21479,7 @@
       </c>
       <c r="E381">
         <f t="shared" ca="1" si="5"/>
-        <v>3470</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -21499,7 +21499,7 @@
       </c>
       <c r="E382">
         <f t="shared" ca="1" si="5"/>
-        <v>4620</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -21519,7 +21519,7 @@
       </c>
       <c r="E383">
         <f t="shared" ca="1" si="5"/>
-        <v>3610</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="E384">
         <f t="shared" ca="1" si="5"/>
-        <v>4570</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="E385">
         <f t="shared" ca="1" si="5"/>
-        <v>1560</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -21579,7 +21579,7 @@
       </c>
       <c r="E386">
         <f t="shared" ca="1" si="5"/>
-        <v>1450</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -21599,7 +21599,7 @@
       </c>
       <c r="E387">
         <f t="shared" ref="E387:E450" ca="1" si="6">INT((D387-RANDBETWEEN(0,200))/10)*10</f>
-        <v>3160</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="E388">
         <f t="shared" ca="1" si="6"/>
-        <v>1520</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -21639,7 +21639,7 @@
       </c>
       <c r="E389">
         <f t="shared" ca="1" si="6"/>
-        <v>2870</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="E390">
         <f t="shared" ca="1" si="6"/>
-        <v>3590</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -21679,7 +21679,7 @@
       </c>
       <c r="E391">
         <f t="shared" ca="1" si="6"/>
-        <v>840</v>
+        <v>960</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -21699,7 +21699,7 @@
       </c>
       <c r="E392">
         <f t="shared" ca="1" si="6"/>
-        <v>2790</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -21719,7 +21719,7 @@
       </c>
       <c r="E393">
         <f t="shared" ca="1" si="6"/>
-        <v>3580</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
@@ -21739,7 +21739,7 @@
       </c>
       <c r="E394">
         <f t="shared" ca="1" si="6"/>
-        <v>3110</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="E395">
         <f t="shared" ca="1" si="6"/>
-        <v>4560</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -21779,7 +21779,7 @@
       </c>
       <c r="E396">
         <f t="shared" ca="1" si="6"/>
-        <v>920</v>
+        <v>800</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -21799,7 +21799,7 @@
       </c>
       <c r="E397">
         <f t="shared" ca="1" si="6"/>
-        <v>3510</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="E398">
         <f t="shared" ca="1" si="6"/>
-        <v>4850</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -21839,7 +21839,7 @@
       </c>
       <c r="E399">
         <f t="shared" ca="1" si="6"/>
-        <v>3240</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -21859,7 +21859,7 @@
       </c>
       <c r="E400">
         <f t="shared" ca="1" si="6"/>
-        <v>4000</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="E401">
         <f t="shared" ca="1" si="6"/>
-        <v>2870</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="E402">
         <f t="shared" ca="1" si="6"/>
-        <v>850</v>
+        <v>810</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -21919,7 +21919,7 @@
       </c>
       <c r="E403">
         <f t="shared" ca="1" si="6"/>
-        <v>3400</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -21939,7 +21939,7 @@
       </c>
       <c r="E404">
         <f t="shared" ca="1" si="6"/>
-        <v>3390</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -21959,7 +21959,7 @@
       </c>
       <c r="E405">
         <f t="shared" ca="1" si="6"/>
-        <v>4170</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="E406">
         <f t="shared" ca="1" si="6"/>
-        <v>1780</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="E407">
         <f t="shared" ca="1" si="6"/>
-        <v>2930</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -22019,7 +22019,7 @@
       </c>
       <c r="E408">
         <f t="shared" ca="1" si="6"/>
-        <v>1720</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -22039,7 +22039,7 @@
       </c>
       <c r="E409">
         <f t="shared" ca="1" si="6"/>
-        <v>2540</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -22059,7 +22059,7 @@
       </c>
       <c r="E410">
         <f t="shared" ca="1" si="6"/>
-        <v>3330</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -22079,7 +22079,7 @@
       </c>
       <c r="E411">
         <f t="shared" ca="1" si="6"/>
-        <v>2960</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -22099,7 +22099,7 @@
       </c>
       <c r="E412">
         <f t="shared" ca="1" si="6"/>
-        <v>2070</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -22139,7 +22139,7 @@
       </c>
       <c r="E414">
         <f t="shared" ca="1" si="6"/>
-        <v>2340</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -22159,7 +22159,7 @@
       </c>
       <c r="E415">
         <f t="shared" ca="1" si="6"/>
-        <v>3840</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -22199,7 +22199,7 @@
       </c>
       <c r="E417">
         <f t="shared" ca="1" si="6"/>
-        <v>1140</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -22239,7 +22239,7 @@
       </c>
       <c r="E419">
         <f t="shared" ca="1" si="6"/>
-        <v>4660</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -22259,7 +22259,7 @@
       </c>
       <c r="E420">
         <f t="shared" ca="1" si="6"/>
-        <v>3290</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="E421">
         <f t="shared" ca="1" si="6"/>
-        <v>2030</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -22299,7 +22299,7 @@
       </c>
       <c r="E422">
         <f t="shared" ca="1" si="6"/>
-        <v>1930</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E423">
         <f t="shared" ca="1" si="6"/>
-        <v>2520</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="E424">
         <f t="shared" ca="1" si="6"/>
-        <v>4690</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -22359,7 +22359,7 @@
       </c>
       <c r="E425">
         <f t="shared" ca="1" si="6"/>
-        <v>1850</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="E426">
         <f t="shared" ca="1" si="6"/>
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -22399,7 +22399,7 @@
       </c>
       <c r="E427">
         <f t="shared" ca="1" si="6"/>
-        <v>4250</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="E428">
         <f t="shared" ca="1" si="6"/>
-        <v>4150</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -22439,7 +22439,7 @@
       </c>
       <c r="E429">
         <f t="shared" ca="1" si="6"/>
-        <v>2610</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -22459,7 +22459,7 @@
       </c>
       <c r="E430">
         <f t="shared" ca="1" si="6"/>
-        <v>830</v>
+        <v>890</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="E431">
         <f t="shared" ca="1" si="6"/>
-        <v>2640</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="E432">
         <f t="shared" ca="1" si="6"/>
-        <v>680</v>
+        <v>830</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -22519,7 +22519,7 @@
       </c>
       <c r="E433">
         <f t="shared" ca="1" si="6"/>
-        <v>2460</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -22539,7 +22539,7 @@
       </c>
       <c r="E434">
         <f t="shared" ca="1" si="6"/>
-        <v>4510</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -22559,7 +22559,7 @@
       </c>
       <c r="E435">
         <f t="shared" ca="1" si="6"/>
-        <v>2480</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -22579,7 +22579,7 @@
       </c>
       <c r="E436">
         <f t="shared" ca="1" si="6"/>
-        <v>3570</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -22599,7 +22599,7 @@
       </c>
       <c r="E437">
         <f t="shared" ca="1" si="6"/>
-        <v>1420</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -22619,7 +22619,7 @@
       </c>
       <c r="E438">
         <f t="shared" ca="1" si="6"/>
-        <v>1080</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -22639,7 +22639,7 @@
       </c>
       <c r="E439">
         <f t="shared" ca="1" si="6"/>
-        <v>4140</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="E440">
         <f t="shared" ca="1" si="6"/>
-        <v>1840</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -22679,7 +22679,7 @@
       </c>
       <c r="E441">
         <f t="shared" ca="1" si="6"/>
-        <v>4260</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -22699,7 +22699,7 @@
       </c>
       <c r="E442">
         <f t="shared" ca="1" si="6"/>
-        <v>3210</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="E443">
         <f t="shared" ca="1" si="6"/>
-        <v>3230</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -22739,7 +22739,7 @@
       </c>
       <c r="E444">
         <f t="shared" ca="1" si="6"/>
-        <v>2020</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -22759,7 +22759,7 @@
       </c>
       <c r="E445">
         <f t="shared" ca="1" si="6"/>
-        <v>2420</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -22779,7 +22779,7 @@
       </c>
       <c r="E446">
         <f t="shared" ca="1" si="6"/>
-        <v>4670</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="E447">
         <f t="shared" ca="1" si="6"/>
-        <v>4660</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="E448">
         <f t="shared" ca="1" si="6"/>
-        <v>3290</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -22839,7 +22839,7 @@
       </c>
       <c r="E449">
         <f t="shared" ca="1" si="6"/>
-        <v>1980</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
@@ -22859,7 +22859,7 @@
       </c>
       <c r="E450">
         <f t="shared" ca="1" si="6"/>
-        <v>4440</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
@@ -22879,7 +22879,7 @@
       </c>
       <c r="E451">
         <f t="shared" ref="E451:E514" ca="1" si="7">INT((D451-RANDBETWEEN(0,200))/10)*10</f>
-        <v>4350</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="E452">
         <f t="shared" ca="1" si="7"/>
-        <v>1970</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
@@ -22919,7 +22919,7 @@
       </c>
       <c r="E453">
         <f t="shared" ca="1" si="7"/>
-        <v>3820</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
@@ -22939,7 +22939,7 @@
       </c>
       <c r="E454">
         <f t="shared" ca="1" si="7"/>
-        <v>4890</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="E456">
         <f t="shared" ca="1" si="7"/>
-        <v>3590</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
@@ -22999,7 +22999,7 @@
       </c>
       <c r="E457">
         <f t="shared" ca="1" si="7"/>
-        <v>990</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -23019,7 +23019,7 @@
       </c>
       <c r="E458">
         <f t="shared" ca="1" si="7"/>
-        <v>2190</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -23039,7 +23039,7 @@
       </c>
       <c r="E459">
         <f t="shared" ca="1" si="7"/>
-        <v>4270</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
@@ -23059,7 +23059,7 @@
       </c>
       <c r="E460">
         <f t="shared" ca="1" si="7"/>
-        <v>1110</v>
+        <v>990</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
@@ -23079,7 +23079,7 @@
       </c>
       <c r="E461">
         <f t="shared" ca="1" si="7"/>
-        <v>700</v>
+        <v>610</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
@@ -23099,7 +23099,7 @@
       </c>
       <c r="E462">
         <f t="shared" ca="1" si="7"/>
-        <v>1530</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
@@ -23119,7 +23119,7 @@
       </c>
       <c r="E463">
         <f t="shared" ca="1" si="7"/>
-        <v>3190</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
@@ -23159,7 +23159,7 @@
       </c>
       <c r="E465">
         <f t="shared" ca="1" si="7"/>
-        <v>2500</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="E466">
         <f t="shared" ca="1" si="7"/>
-        <v>4710</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -23199,7 +23199,7 @@
       </c>
       <c r="E467">
         <f t="shared" ca="1" si="7"/>
-        <v>3350</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -23219,7 +23219,7 @@
       </c>
       <c r="E468">
         <f t="shared" ca="1" si="7"/>
-        <v>4230</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E469">
         <f t="shared" ca="1" si="7"/>
-        <v>2650</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -23259,7 +23259,7 @@
       </c>
       <c r="E470">
         <f t="shared" ca="1" si="7"/>
-        <v>1670</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="E471">
         <f t="shared" ca="1" si="7"/>
-        <v>3460</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -23299,7 +23299,7 @@
       </c>
       <c r="E472">
         <f t="shared" ca="1" si="7"/>
-        <v>3350</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -23319,7 +23319,7 @@
       </c>
       <c r="E473">
         <f t="shared" ca="1" si="7"/>
-        <v>3200</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -23339,7 +23339,7 @@
       </c>
       <c r="E474">
         <f t="shared" ca="1" si="7"/>
-        <v>1790</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -23379,7 +23379,7 @@
       </c>
       <c r="E476">
         <f t="shared" ca="1" si="7"/>
-        <v>760</v>
+        <v>860</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -23399,7 +23399,7 @@
       </c>
       <c r="E477">
         <f t="shared" ca="1" si="7"/>
-        <v>2930</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -23419,7 +23419,7 @@
       </c>
       <c r="E478">
         <f t="shared" ca="1" si="7"/>
-        <v>4580</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -23439,7 +23439,7 @@
       </c>
       <c r="E479">
         <f t="shared" ca="1" si="7"/>
-        <v>1340</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -23459,7 +23459,7 @@
       </c>
       <c r="E480">
         <f t="shared" ca="1" si="7"/>
-        <v>4470</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -23479,7 +23479,7 @@
       </c>
       <c r="E481">
         <f t="shared" ca="1" si="7"/>
-        <v>4400</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -23499,7 +23499,7 @@
       </c>
       <c r="E482">
         <f t="shared" ca="1" si="7"/>
-        <v>700</v>
+        <v>680</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="E483">
         <f t="shared" ca="1" si="7"/>
-        <v>1860</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -23539,7 +23539,7 @@
       </c>
       <c r="E484">
         <f t="shared" ca="1" si="7"/>
-        <v>3330</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="E486">
         <f t="shared" ca="1" si="7"/>
-        <v>1690</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -23599,7 +23599,7 @@
       </c>
       <c r="E487">
         <f t="shared" ca="1" si="7"/>
-        <v>430</v>
+        <v>370</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -23619,7 +23619,7 @@
       </c>
       <c r="E488">
         <f t="shared" ca="1" si="7"/>
-        <v>3410</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -23639,7 +23639,7 @@
       </c>
       <c r="E489">
         <f t="shared" ca="1" si="7"/>
-        <v>3620</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="E490">
         <f t="shared" ca="1" si="7"/>
-        <v>2000</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="E491">
         <f t="shared" ca="1" si="7"/>
-        <v>4030</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -23699,7 +23699,7 @@
       </c>
       <c r="E492">
         <f t="shared" ca="1" si="7"/>
-        <v>870</v>
+        <v>800</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -23719,7 +23719,7 @@
       </c>
       <c r="E493">
         <f t="shared" ca="1" si="7"/>
-        <v>690</v>
+        <v>600</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -23739,7 +23739,7 @@
       </c>
       <c r="E494">
         <f t="shared" ca="1" si="7"/>
-        <v>3430</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -23759,7 +23759,7 @@
       </c>
       <c r="E495">
         <f t="shared" ca="1" si="7"/>
-        <v>2590</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -23779,7 +23779,7 @@
       </c>
       <c r="E496">
         <f t="shared" ca="1" si="7"/>
-        <v>1810</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -23799,7 +23799,7 @@
       </c>
       <c r="E497">
         <f t="shared" ca="1" si="7"/>
-        <v>4750</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -23819,7 +23819,7 @@
       </c>
       <c r="E498">
         <f t="shared" ca="1" si="7"/>
-        <v>2350</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -23839,7 +23839,7 @@
       </c>
       <c r="E499">
         <f t="shared" ca="1" si="7"/>
-        <v>3200</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -23859,7 +23859,7 @@
       </c>
       <c r="E500">
         <f t="shared" ca="1" si="7"/>
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -23879,7 +23879,7 @@
       </c>
       <c r="E501">
         <f t="shared" ca="1" si="7"/>
-        <v>4890</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -23899,7 +23899,7 @@
       </c>
       <c r="E502">
         <f t="shared" ca="1" si="7"/>
-        <v>730</v>
+        <v>630</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="E503">
         <f t="shared" ca="1" si="7"/>
-        <v>920</v>
+        <v>850</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="E504">
         <f t="shared" ca="1" si="7"/>
-        <v>1030</v>
+        <v>960</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -23959,7 +23959,7 @@
       </c>
       <c r="E505">
         <f t="shared" ca="1" si="7"/>
-        <v>1120</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
@@ -23979,7 +23979,7 @@
       </c>
       <c r="E506">
         <f t="shared" ca="1" si="7"/>
-        <v>4180</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="E507">
         <f t="shared" ca="1" si="7"/>
-        <v>880</v>
+        <v>850</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -24019,7 +24019,7 @@
       </c>
       <c r="E508">
         <f t="shared" ca="1" si="7"/>
-        <v>2070</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -24039,7 +24039,7 @@
       </c>
       <c r="E509">
         <f t="shared" ca="1" si="7"/>
-        <v>1860</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -24059,7 +24059,7 @@
       </c>
       <c r="E510">
         <f t="shared" ca="1" si="7"/>
-        <v>2510</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -24079,7 +24079,7 @@
       </c>
       <c r="E511">
         <f t="shared" ca="1" si="7"/>
-        <v>4350</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -24099,7 +24099,7 @@
       </c>
       <c r="E512">
         <f t="shared" ca="1" si="7"/>
-        <v>1490</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -24119,7 +24119,7 @@
       </c>
       <c r="E513">
         <f t="shared" ca="1" si="7"/>
-        <v>1020</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -24139,7 +24139,7 @@
       </c>
       <c r="E514">
         <f t="shared" ca="1" si="7"/>
-        <v>820</v>
+        <v>910</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -24159,7 +24159,7 @@
       </c>
       <c r="E515">
         <f t="shared" ref="E515:E578" ca="1" si="8">INT((D515-RANDBETWEEN(0,200))/10)*10</f>
-        <v>1680</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
@@ -24179,7 +24179,7 @@
       </c>
       <c r="E516">
         <f t="shared" ca="1" si="8"/>
-        <v>3500</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="E517">
         <f t="shared" ca="1" si="8"/>
-        <v>850</v>
+        <v>790</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
@@ -24219,7 +24219,7 @@
       </c>
       <c r="E518">
         <f t="shared" ca="1" si="8"/>
-        <v>1980</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E519">
         <f t="shared" ca="1" si="8"/>
-        <v>1040</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -24259,7 +24259,7 @@
       </c>
       <c r="E520">
         <f t="shared" ca="1" si="8"/>
-        <v>2510</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -24279,7 +24279,7 @@
       </c>
       <c r="E521">
         <f t="shared" ca="1" si="8"/>
-        <v>3190</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -24299,7 +24299,7 @@
       </c>
       <c r="E522">
         <f t="shared" ca="1" si="8"/>
-        <v>1470</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -24319,7 +24319,7 @@
       </c>
       <c r="E523">
         <f t="shared" ca="1" si="8"/>
-        <v>4470</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
@@ -24339,7 +24339,7 @@
       </c>
       <c r="E524">
         <f t="shared" ca="1" si="8"/>
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="E525">
         <f t="shared" ca="1" si="8"/>
-        <v>1150</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="E526">
         <f t="shared" ca="1" si="8"/>
-        <v>2590</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -24399,7 +24399,7 @@
       </c>
       <c r="E527">
         <f t="shared" ca="1" si="8"/>
-        <v>3360</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="E528">
         <f t="shared" ca="1" si="8"/>
-        <v>4470</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="E529">
         <f t="shared" ca="1" si="8"/>
-        <v>4780</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
@@ -24459,7 +24459,7 @@
       </c>
       <c r="E530">
         <f t="shared" ca="1" si="8"/>
-        <v>780</v>
+        <v>620</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
@@ -24479,7 +24479,7 @@
       </c>
       <c r="E531">
         <f t="shared" ca="1" si="8"/>
-        <v>4380</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
@@ -24499,7 +24499,7 @@
       </c>
       <c r="E532">
         <f t="shared" ca="1" si="8"/>
-        <v>1870</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="E533">
         <f t="shared" ca="1" si="8"/>
-        <v>4410</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -24539,7 +24539,7 @@
       </c>
       <c r="E534">
         <f t="shared" ca="1" si="8"/>
-        <v>2090</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
@@ -24559,7 +24559,7 @@
       </c>
       <c r="E535">
         <f t="shared" ca="1" si="8"/>
-        <v>4200</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
@@ -24579,7 +24579,7 @@
       </c>
       <c r="E536">
         <f t="shared" ca="1" si="8"/>
-        <v>4460</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
@@ -24599,7 +24599,7 @@
       </c>
       <c r="E537">
         <f t="shared" ca="1" si="8"/>
-        <v>1310</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="E538">
         <f t="shared" ca="1" si="8"/>
-        <v>1150</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -24639,7 +24639,7 @@
       </c>
       <c r="E539">
         <f t="shared" ca="1" si="8"/>
-        <v>4190</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -24659,7 +24659,7 @@
       </c>
       <c r="E540">
         <f t="shared" ca="1" si="8"/>
-        <v>4540</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
@@ -24679,7 +24679,7 @@
       </c>
       <c r="E541">
         <f t="shared" ca="1" si="8"/>
-        <v>3490</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
@@ -24699,7 +24699,7 @@
       </c>
       <c r="E542">
         <f t="shared" ca="1" si="8"/>
-        <v>1060</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
@@ -24719,7 +24719,7 @@
       </c>
       <c r="E543">
         <f t="shared" ca="1" si="8"/>
-        <v>3210</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
@@ -24739,7 +24739,7 @@
       </c>
       <c r="E544">
         <f t="shared" ca="1" si="8"/>
-        <v>1020</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
@@ -24759,7 +24759,7 @@
       </c>
       <c r="E545">
         <f t="shared" ca="1" si="8"/>
-        <v>1510</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="E546">
         <f t="shared" ca="1" si="8"/>
-        <v>4860</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="E547">
         <f t="shared" ca="1" si="8"/>
-        <v>2310</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
@@ -24819,7 +24819,7 @@
       </c>
       <c r="E548">
         <f t="shared" ca="1" si="8"/>
-        <v>1070</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
@@ -24839,7 +24839,7 @@
       </c>
       <c r="E549">
         <f t="shared" ca="1" si="8"/>
-        <v>1710</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
@@ -24859,7 +24859,7 @@
       </c>
       <c r="E550">
         <f t="shared" ca="1" si="8"/>
-        <v>2560</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
@@ -24879,7 +24879,7 @@
       </c>
       <c r="E551">
         <f t="shared" ca="1" si="8"/>
-        <v>3130</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
@@ -24899,7 +24899,7 @@
       </c>
       <c r="E552">
         <f t="shared" ca="1" si="8"/>
-        <v>4290</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
@@ -24919,7 +24919,7 @@
       </c>
       <c r="E553">
         <f t="shared" ca="1" si="8"/>
-        <v>3550</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
@@ -24939,7 +24939,7 @@
       </c>
       <c r="E554">
         <f t="shared" ca="1" si="8"/>
-        <v>2520</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
@@ -24959,7 +24959,7 @@
       </c>
       <c r="E555">
         <f t="shared" ca="1" si="8"/>
-        <v>3380</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
@@ -24979,7 +24979,7 @@
       </c>
       <c r="E556">
         <f t="shared" ca="1" si="8"/>
-        <v>1110</v>
+        <v>940</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
@@ -24999,7 +24999,7 @@
       </c>
       <c r="E557">
         <f t="shared" ca="1" si="8"/>
-        <v>720</v>
+        <v>820</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
@@ -25019,7 +25019,7 @@
       </c>
       <c r="E558">
         <f t="shared" ca="1" si="8"/>
-        <v>810</v>
+        <v>760</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
@@ -25039,7 +25039,7 @@
       </c>
       <c r="E559">
         <f t="shared" ca="1" si="8"/>
-        <v>4150</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
@@ -25059,7 +25059,7 @@
       </c>
       <c r="E560">
         <f t="shared" ca="1" si="8"/>
-        <v>1510</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
@@ -25079,7 +25079,7 @@
       </c>
       <c r="E561">
         <f t="shared" ca="1" si="8"/>
-        <v>630</v>
+        <v>490</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
@@ -25099,7 +25099,7 @@
       </c>
       <c r="E562">
         <f t="shared" ca="1" si="8"/>
-        <v>820</v>
+        <v>960</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="E563">
         <f t="shared" ca="1" si="8"/>
-        <v>1970</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
@@ -25139,7 +25139,7 @@
       </c>
       <c r="E564">
         <f t="shared" ca="1" si="8"/>
-        <v>3430</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="E565">
         <f t="shared" ca="1" si="8"/>
-        <v>370</v>
+        <v>420</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
@@ -25179,7 +25179,7 @@
       </c>
       <c r="E566">
         <f t="shared" ca="1" si="8"/>
-        <v>3390</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="E567">
         <f t="shared" ca="1" si="8"/>
-        <v>1900</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
@@ -25219,7 +25219,7 @@
       </c>
       <c r="E568">
         <f t="shared" ca="1" si="8"/>
-        <v>3450</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
@@ -25239,7 +25239,7 @@
       </c>
       <c r="E569">
         <f t="shared" ca="1" si="8"/>
-        <v>4860</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
@@ -25279,7 +25279,7 @@
       </c>
       <c r="E571">
         <f t="shared" ca="1" si="8"/>
-        <v>3860</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
@@ -25299,7 +25299,7 @@
       </c>
       <c r="E572">
         <f t="shared" ca="1" si="8"/>
-        <v>4350</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
@@ -25319,7 +25319,7 @@
       </c>
       <c r="E573">
         <f t="shared" ca="1" si="8"/>
-        <v>2930</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
@@ -25339,7 +25339,7 @@
       </c>
       <c r="E574">
         <f t="shared" ca="1" si="8"/>
-        <v>4200</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.3">
@@ -25359,7 +25359,7 @@
       </c>
       <c r="E575">
         <f t="shared" ca="1" si="8"/>
-        <v>4210</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.3">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="E576">
         <f t="shared" ca="1" si="8"/>
-        <v>3140</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.3">
@@ -25399,7 +25399,7 @@
       </c>
       <c r="E577">
         <f t="shared" ca="1" si="8"/>
-        <v>510</v>
+        <v>430</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.3">
@@ -25419,7 +25419,7 @@
       </c>
       <c r="E578">
         <f t="shared" ca="1" si="8"/>
-        <v>4340</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.3">
@@ -25439,7 +25439,7 @@
       </c>
       <c r="E579">
         <f t="shared" ref="E579:E642" ca="1" si="9">INT((D579-RANDBETWEEN(0,200))/10)*10</f>
-        <v>3930</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.3">
@@ -25479,7 +25479,7 @@
       </c>
       <c r="E581">
         <f t="shared" ca="1" si="9"/>
-        <v>1420</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
@@ -25499,7 +25499,7 @@
       </c>
       <c r="E582">
         <f t="shared" ca="1" si="9"/>
-        <v>1950</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
@@ -25519,7 +25519,7 @@
       </c>
       <c r="E583">
         <f t="shared" ca="1" si="9"/>
-        <v>610</v>
+        <v>480</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
@@ -25539,7 +25539,7 @@
       </c>
       <c r="E584">
         <f t="shared" ca="1" si="9"/>
-        <v>3560</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
@@ -25559,7 +25559,7 @@
       </c>
       <c r="E585">
         <f t="shared" ca="1" si="9"/>
-        <v>570</v>
+        <v>680</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="E586">
         <f t="shared" ca="1" si="9"/>
-        <v>1470</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
@@ -25599,7 +25599,7 @@
       </c>
       <c r="E587">
         <f t="shared" ca="1" si="9"/>
-        <v>2600</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
@@ -25619,7 +25619,7 @@
       </c>
       <c r="E588">
         <f t="shared" ca="1" si="9"/>
-        <v>3320</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
@@ -25639,7 +25639,7 @@
       </c>
       <c r="E589">
         <f t="shared" ca="1" si="9"/>
-        <v>810</v>
+        <v>730</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="E590">
         <f t="shared" ca="1" si="9"/>
-        <v>4030</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
@@ -25679,7 +25679,7 @@
       </c>
       <c r="E591">
         <f t="shared" ca="1" si="9"/>
-        <v>4530</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
@@ -25699,7 +25699,7 @@
       </c>
       <c r="E592">
         <f t="shared" ca="1" si="9"/>
-        <v>4250</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -25719,7 +25719,7 @@
       </c>
       <c r="E593">
         <f t="shared" ca="1" si="9"/>
-        <v>4680</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="E594">
         <f t="shared" ca="1" si="9"/>
-        <v>490</v>
+        <v>420</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
@@ -25759,7 +25759,7 @@
       </c>
       <c r="E595">
         <f t="shared" ca="1" si="9"/>
-        <v>3070</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
@@ -25779,7 +25779,7 @@
       </c>
       <c r="E596">
         <f t="shared" ca="1" si="9"/>
-        <v>1420</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
@@ -25799,7 +25799,7 @@
       </c>
       <c r="E597">
         <f t="shared" ca="1" si="9"/>
-        <v>4680</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
@@ -25819,7 +25819,7 @@
       </c>
       <c r="E598">
         <f t="shared" ca="1" si="9"/>
-        <v>3140</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="E599">
         <f t="shared" ca="1" si="9"/>
-        <v>3880</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
@@ -25859,7 +25859,7 @@
       </c>
       <c r="E600">
         <f t="shared" ca="1" si="9"/>
-        <v>1610</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
@@ -25879,7 +25879,7 @@
       </c>
       <c r="E601">
         <f t="shared" ca="1" si="9"/>
-        <v>2620</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
@@ -25899,7 +25899,7 @@
       </c>
       <c r="E602">
         <f t="shared" ca="1" si="9"/>
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
@@ -25919,7 +25919,7 @@
       </c>
       <c r="E603">
         <f t="shared" ca="1" si="9"/>
-        <v>2540</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="E604">
         <f t="shared" ca="1" si="9"/>
-        <v>4180</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="E605">
         <f t="shared" ca="1" si="9"/>
-        <v>1590</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
@@ -25979,7 +25979,7 @@
       </c>
       <c r="E606">
         <f t="shared" ca="1" si="9"/>
-        <v>790</v>
+        <v>740</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
@@ -25999,7 +25999,7 @@
       </c>
       <c r="E607">
         <f t="shared" ca="1" si="9"/>
-        <v>4230</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
@@ -26019,7 +26019,7 @@
       </c>
       <c r="E608">
         <f t="shared" ca="1" si="9"/>
-        <v>3090</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
@@ -26039,7 +26039,7 @@
       </c>
       <c r="E609">
         <f t="shared" ca="1" si="9"/>
-        <v>3270</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
@@ -26059,7 +26059,7 @@
       </c>
       <c r="E610">
         <f t="shared" ca="1" si="9"/>
-        <v>3170</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
@@ -26079,7 +26079,7 @@
       </c>
       <c r="E611">
         <f t="shared" ca="1" si="9"/>
-        <v>1110</v>
+        <v>980</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
@@ -26099,7 +26099,7 @@
       </c>
       <c r="E612">
         <f t="shared" ca="1" si="9"/>
-        <v>3270</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
@@ -26119,7 +26119,7 @@
       </c>
       <c r="E613">
         <f t="shared" ca="1" si="9"/>
-        <v>3290</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
@@ -26139,7 +26139,7 @@
       </c>
       <c r="E614">
         <f t="shared" ca="1" si="9"/>
-        <v>1070</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
@@ -26179,7 +26179,7 @@
       </c>
       <c r="E616">
         <f t="shared" ca="1" si="9"/>
-        <v>840</v>
+        <v>910</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
@@ -26199,7 +26199,7 @@
       </c>
       <c r="E617">
         <f t="shared" ca="1" si="9"/>
-        <v>1920</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
@@ -26219,7 +26219,7 @@
       </c>
       <c r="E618">
         <f t="shared" ca="1" si="9"/>
-        <v>1120</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
@@ -26239,7 +26239,7 @@
       </c>
       <c r="E619">
         <f t="shared" ca="1" si="9"/>
-        <v>3160</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
@@ -26259,7 +26259,7 @@
       </c>
       <c r="E620">
         <f t="shared" ca="1" si="9"/>
-        <v>1570</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
@@ -26279,7 +26279,7 @@
       </c>
       <c r="E621">
         <f t="shared" ca="1" si="9"/>
-        <v>3550</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
@@ -26299,7 +26299,7 @@
       </c>
       <c r="E622">
         <f t="shared" ca="1" si="9"/>
-        <v>4600</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
@@ -26319,7 +26319,7 @@
       </c>
       <c r="E623">
         <f t="shared" ca="1" si="9"/>
-        <v>4340</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
@@ -26339,7 +26339,7 @@
       </c>
       <c r="E624">
         <f t="shared" ca="1" si="9"/>
-        <v>2520</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
@@ -26359,7 +26359,7 @@
       </c>
       <c r="E625">
         <f t="shared" ca="1" si="9"/>
-        <v>3310</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.3">
@@ -26379,7 +26379,7 @@
       </c>
       <c r="E626">
         <f t="shared" ca="1" si="9"/>
-        <v>690</v>
+        <v>710</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
@@ -26399,7 +26399,7 @@
       </c>
       <c r="E627">
         <f t="shared" ca="1" si="9"/>
-        <v>2570</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
@@ -26419,7 +26419,7 @@
       </c>
       <c r="E628">
         <f t="shared" ca="1" si="9"/>
-        <v>1810</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
@@ -26439,7 +26439,7 @@
       </c>
       <c r="E629">
         <f t="shared" ca="1" si="9"/>
-        <v>4300</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
@@ -26479,7 +26479,7 @@
       </c>
       <c r="E631">
         <f t="shared" ca="1" si="9"/>
-        <v>4130</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
@@ -26499,7 +26499,7 @@
       </c>
       <c r="E632">
         <f t="shared" ca="1" si="9"/>
-        <v>870</v>
+        <v>830</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
@@ -26519,7 +26519,7 @@
       </c>
       <c r="E633">
         <f t="shared" ca="1" si="9"/>
-        <v>4170</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
@@ -26539,7 +26539,7 @@
       </c>
       <c r="E634">
         <f t="shared" ca="1" si="9"/>
-        <v>3340</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
@@ -26559,7 +26559,7 @@
       </c>
       <c r="E635">
         <f t="shared" ca="1" si="9"/>
-        <v>4250</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
@@ -26579,7 +26579,7 @@
       </c>
       <c r="E636">
         <f t="shared" ca="1" si="9"/>
-        <v>1910</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
@@ -26599,7 +26599,7 @@
       </c>
       <c r="E637">
         <f t="shared" ca="1" si="9"/>
-        <v>4650</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
@@ -26619,7 +26619,7 @@
       </c>
       <c r="E638">
         <f t="shared" ca="1" si="9"/>
-        <v>3390</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
@@ -26639,7 +26639,7 @@
       </c>
       <c r="E639">
         <f t="shared" ca="1" si="9"/>
-        <v>4510</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="E640">
         <f t="shared" ca="1" si="9"/>
-        <v>3890</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
@@ -26679,7 +26679,7 @@
       </c>
       <c r="E641">
         <f t="shared" ca="1" si="9"/>
-        <v>3920</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
@@ -26699,7 +26699,7 @@
       </c>
       <c r="E642">
         <f t="shared" ca="1" si="9"/>
-        <v>980</v>
+        <v>930</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
@@ -26739,7 +26739,7 @@
       </c>
       <c r="E644">
         <f t="shared" ca="1" si="10"/>
-        <v>3590</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.3">
@@ -26759,7 +26759,7 @@
       </c>
       <c r="E645">
         <f t="shared" ca="1" si="10"/>
-        <v>1800</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.3">
@@ -26779,7 +26779,7 @@
       </c>
       <c r="E646">
         <f t="shared" ca="1" si="10"/>
-        <v>1510</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.3">
@@ -26799,7 +26799,7 @@
       </c>
       <c r="E647">
         <f t="shared" ca="1" si="10"/>
-        <v>4240</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.3">
@@ -26819,7 +26819,7 @@
       </c>
       <c r="E648">
         <f t="shared" ca="1" si="10"/>
-        <v>1470</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.3">
@@ -26839,7 +26839,7 @@
       </c>
       <c r="E649">
         <f t="shared" ca="1" si="10"/>
-        <v>2900</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.3">
@@ -26859,7 +26859,7 @@
       </c>
       <c r="E650">
         <f t="shared" ca="1" si="10"/>
-        <v>1300</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.3">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="E651">
         <f t="shared" ca="1" si="10"/>
-        <v>3770</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.3">
@@ -26899,7 +26899,7 @@
       </c>
       <c r="E652">
         <f t="shared" ca="1" si="10"/>
-        <v>3490</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.3">
@@ -26953,7 +26953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
